--- a/src/test/javascript/cypress/fixtures/02-import-flows.xlsx
+++ b/src/test/javascript/cypress/fixtures/02-import-flows.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="62">
   <si>
     <t xml:space="preserve">From ADD</t>
   </si>
@@ -83,6 +83,9 @@
     <t xml:space="preserve">Alias flow</t>
   </si>
   <si>
+    <t xml:space="preserve">External</t>
+  </si>
+  <si>
     <t xml:space="preserve">Source Element</t>
   </si>
   <si>
@@ -192,6 +195,21 @@
   </si>
   <si>
     <t xml:space="preserve">Description TRAD.001 – STEP 04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EXT.001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EXTERNAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OTHER</t>
   </si>
 </sst>
 </file>
@@ -423,8 +441,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="C1:T1" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="C1:T1"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="D1:U1" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
+  <autoFilter ref="D1:U1"/>
   <tableColumns count="18">
     <tableColumn id="1" name="Source Element"/>
     <tableColumn id="2" name="Target Element"/>
@@ -459,7 +477,7 @@
       <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.19140625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="35.12"/>
   </cols>
@@ -600,33 +618,34 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:U6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.19140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="21.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="26.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="63.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="13.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="14.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="11.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="17.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="19.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="14.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="16.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="14" style="0" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="14.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="22.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="21.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="24.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="21.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="20.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="26.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="63.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="13.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="14.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="11.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="17.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="19.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="14.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="16.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="15" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="14.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="22.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="21.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="24.29"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -690,15 +709,15 @@
       <c r="T1" s="1" t="s">
         <v>36</v>
       </c>
+      <c r="U1" s="1" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" s="0" t="s">
         <v>39</v>
       </c>
       <c r="D2" s="0" t="s">
@@ -713,22 +732,22 @@
       <c r="G2" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="I2" s="0" t="s">
+      <c r="H2" s="0" t="s">
         <v>44</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E3" s="0" t="s">
         <v>47</v>
@@ -737,24 +756,24 @@
         <v>48</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="I3" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="H3" s="0" t="s">
         <v>44</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E4" s="0" t="s">
         <v>51</v>
@@ -763,36 +782,68 @@
         <v>52</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="I4" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="H4" s="0" t="s">
         <v>44</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="F5" s="0" t="s">
         <v>55</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="I5" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="H5" s="0" t="s">
         <v>44</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/javascript/cypress/fixtures/02-import-flows.xlsx
+++ b/src/test/javascript/cypress/fixtures/02-import-flows.xlsx
@@ -5,14 +5,15 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="1" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Missing app" sheetId="1" state="hidden" r:id="rId2"/>
-    <sheet name="Message_Flow" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="FLW.01" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Summary" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">Message_Flow!$A$1:$B$1</definedName>
+    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">'FLW.01'!$A$1:$B$1</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="68">
   <si>
     <t xml:space="preserve">From ADD</t>
   </si>
@@ -210,6 +211,24 @@
   </si>
   <si>
     <t xml:space="preserve">OTHER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">entity.type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sheet hyperlink</t>
+  </si>
+  <si>
+    <t xml:space="preserve">landscape.name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Landscape</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLW.01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">02 import flows</t>
   </si>
 </sst>
 </file>
@@ -255,12 +274,18 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFAAB3F2"/>
+        <bgColor rgb="FF9999FF"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -341,13 +366,21 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -373,6 +406,15 @@
     <cellStyle name="Normal 3" xfId="32"/>
     <cellStyle name="Percent 2" xfId="33"/>
   </cellStyles>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="00FFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -411,7 +453,7 @@
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FFCCFFCC"/>
       <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFAAB3F2"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
       <rgbColor rgb="FFFFCC99"/>
@@ -477,7 +519,7 @@
       <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.2265625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.25390625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="35.12"/>
   </cols>
@@ -604,8 +646,8 @@
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -620,11 +662,11 @@
   </sheetPr>
   <dimension ref="A1:U6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.2265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.25390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.59"/>
@@ -849,8 +891,8 @@
   </sheetData>
   <autoFilter ref="A1:B1"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -859,6 +901,57 @@
   <tableParts>
     <tablePart r:id="rId2"/>
   </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="25.56"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
